--- a/AES-256_codeAnalysis/TFG_codeAnalysis_stats.xlsx
+++ b/AES-256_codeAnalysis/TFG_codeAnalysis_stats.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriancarretero/Desktop/UAB_4.0/00_TFG/TFG_codeAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriancarretero/Desktop/UAB_5.0/00_TFG/AES256-HW-Accelerator/AES-256_codeAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F447D8E4-E57C-7644-ACA2-3140CFD18947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37D7AFF-C7A6-6049-9186-84FC7FE42573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{90E8EA98-BF11-E146-897D-84648578932D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{90E8EA98-BF11-E146-897D-84648578932D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cornell Univ. Code" sheetId="1" r:id="rId1"/>
+    <sheet name="My Code" sheetId="3" r:id="rId2"/>
+    <sheet name="Speedup" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>Optimization Level</t>
   </si>
@@ -272,6 +296,54 @@
   <si>
     <t>weight instr % (/100)</t>
   </si>
+  <si>
+    <t>OFAST</t>
+  </si>
+  <si>
+    <t>mixColumns</t>
+  </si>
+  <si>
+    <t>xtime</t>
+  </si>
+  <si>
+    <t>addRoundKey</t>
+  </si>
+  <si>
+    <t>substitution</t>
+  </si>
+  <si>
+    <t>shifting</t>
+  </si>
+  <si>
+    <t>gcc aes256_enc.cpp -lm -lstdc++ -o enc.out</t>
+  </si>
+  <si>
+    <t>aes256_enc.cpp</t>
+  </si>
+  <si>
+    <t>mixColumns (%)</t>
+  </si>
+  <si>
+    <t>shifting (%)</t>
+  </si>
+  <si>
+    <t>substitution (%)</t>
+  </si>
+  <si>
+    <t>addRoundKey (%)</t>
+  </si>
+  <si>
+    <t>xtime (%)</t>
+  </si>
+  <si>
+    <t>weight instr % without mv (/100)</t>
+  </si>
+  <si>
+    <t>weight instr % without move (/100)</t>
+  </si>
+  <si>
+    <t>Corresponds to the shf op. Easier to create the chart this way</t>
+  </si>
 </sst>
 </file>
 
@@ -280,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,8 +375,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +432,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAECF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -371,12 +468,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -421,6 +590,52 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +728,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$10:$E$11</c:f>
+              <c:f>'Cornell Univ. Code'!$E$10:$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -599,7 +814,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$B$15</c:f>
+              <c:f>'Cornell Univ. Code'!$B$12:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -619,7 +834,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$12:$E$15</c:f>
+              <c:f>'Cornell Univ. Code'!$E$12:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -763,6 +978,2433 @@
       <a:solidFill>
         <a:schemeClr val="lt1">
           <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>% ops. depending</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> on calls</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D6C1-A544-B6D6-47C7EC0C16C2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D6C1-A544-B6D6-47C7EC0C16C2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D6C1-A544-B6D6-47C7EC0C16C2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D6C1-A544-B6D6-47C7EC0C16C2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D6C1-A544-B6D6-47C7EC0C16C2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'My Code'!$C$29:$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>^</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>+-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>if ? While</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;&lt; &gt;&gt; </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>='</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'My Code'!$C$53:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27763496143958871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2262210796915161E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25706940874035988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16452442159383032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21850899742930591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D6C1-A544-B6D6-47C7EC0C16C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> ops. based on counting</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E669-2343-8387-F17C881E9C1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E669-2343-8387-F17C881E9C1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E669-2343-8387-F17C881E9C1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E669-2343-8387-F17C881E9C1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E669-2343-8387-F17C881E9C1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'My Code'!$C$29:$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>^</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>+-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>if ? While</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;&lt; &gt;&gt; </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>='</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'My Code'!$C$51:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24642857142857144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1428571428571426E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-E669-2343-8387-F17C881E9C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Instr. Weight (%, /100)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> (perf report aolin)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-92B6-EF4D-A7E5-A55AFCA4C11C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-92B6-EF4D-A7E5-A55AFCA4C11C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-92B6-EF4D-A7E5-A55AFCA4C11C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-92B6-EF4D-A7E5-A55AFCA4C11C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-92B6-EF4D-A7E5-A55AFCA4C11C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'My Code'!$T$33:$T$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>xor/or</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>add</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cmp/jmp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'My Code'!$AB$38:$AB$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7897787951872599E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9714023136176429E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17617503670645265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9264756872519884E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7122866765182464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-92B6-EF4D-A7E5-A55AFCA4C11C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Instr. mean weight (%) (perf report aolin)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-67D4-8D40-87C7-CBE2B120B1BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-67D4-8D40-87C7-CBE2B120B1BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-67D4-8D40-87C7-CBE2B120B1BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-67D4-8D40-87C7-CBE2B120B1BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-67D4-8D40-87C7-CBE2B120B1BE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'My Code'!$T$33:$T$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>xor/or</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>add</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cmp/jmp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'My Code'!$Z$38:$Z$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0947775628626689E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5230256389151821E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16673525659492164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8519280628832462E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.547018395818758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-67D4-8D40-87C7-CBE2B120B1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Instr. Weight (%, /100)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> (perf report aolin)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-21AC-D44C-A31D-0F77BECCBE9F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-21AC-D44C-A31D-0F77BECCBE9F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-21AC-D44C-A31D-0F77BECCBE9F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-21AC-D44C-A31D-0F77BECCBE9F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'My Code'!$T$33:$T$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>xor/or</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>add</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cmp/jmp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'My Code'!$AC$38:$AC$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.16647747616356112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20754695129703787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61232839193707134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3647180602329664E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-21AC-D44C-A31D-0F77BECCBE9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2552107457156076E-2"/>
+          <c:y val="0.14130128470783257"/>
+          <c:w val="0.89722730430754982"/>
+          <c:h val="0.77005318414145596"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speedup!$E$6:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Speedup</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2381852551984897E-2"/>
+                  <c:y val="0.16081871345029233"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F6BF-EA4C-8AA7-E0554D7A37A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6710775047258979E-2"/>
+                  <c:y val="9.3567251461988202E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F6BF-EA4C-8AA7-E0554D7A37A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6710775047259118E-2"/>
+                  <c:y val="9.3567251461988202E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F6BF-EA4C-8AA7-E0554D7A37A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0491493383743052E-2"/>
+                  <c:y val="7.894736842105253E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F6BF-EA4C-8AA7-E0554D7A37A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speedup!$B$8:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OFAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speedup!$E$8:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0292500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4321600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2655099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6BF-EA4C-8AA7-E0554D7A37A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speedup!$B$8:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OFAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F6BF-EA4C-8AA7-E0554D7A37A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="187063823"/>
+        <c:axId val="187065471"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="187063823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187065471"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="187065471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187063823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1026,7 +3668,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$12:$U$16</c:f>
+              <c:f>'Cornell Univ. Code'!$U$12:$U$16</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1049,7 +3691,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$17:$AA$21</c:f>
+              <c:f>'Cornell Univ. Code'!$AA$17:$AA$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1430,7 +4072,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$29:$H$29</c:f>
+              <c:f>'Cornell Univ. Code'!$C$29:$H$29</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1456,7 +4098,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$53:$H$53</c:f>
+              <c:f>'Cornell Univ. Code'!$C$53:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1840,7 +4482,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$29:$H$29</c:f>
+              <c:f>'Cornell Univ. Code'!$C$29:$H$29</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1866,7 +4508,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$51:$H$51</c:f>
+              <c:f>'Cornell Univ. Code'!$C$51:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2044,26 +4686,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2071,8 +4693,145 @@
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-9B2D-5A46-AA0C-C860B6BCCF79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-9B2D-5A46-AA0C-C860B6BCCF79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-9B2D-5A46-AA0C-C860B6BCCF79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-9B2D-5A46-AA0C-C860B6BCCF79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-9B2D-5A46-AA0C-C860B6BCCF79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cornell Univ. Code'!$U$33:$U$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>xor/or</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>add</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cmp/jmp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mv</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cornell Univ. Code'!$AA$38:$AA$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.39879804049237799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0904169882573568E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0399167404423355E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4625459401230626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7747810281310411E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-9B2D-5A46-AA0C-C860B6BCCF79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -2089,7 +4848,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-41FE-D445-A884-5B807461771D}"/>
+                <c16:uniqueId val="{0000000D-9B2D-5A46-AA0C-C860B6BCCF79}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2109,7 +4868,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-41FE-D445-A884-5B807461771D}"/>
+                <c16:uniqueId val="{0000000F-9B2D-5A46-AA0C-C860B6BCCF79}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2129,7 +4888,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-41FE-D445-A884-5B807461771D}"/>
+                <c16:uniqueId val="{00000011-9B2D-5A46-AA0C-C860B6BCCF79}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2149,7 +4908,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-41FE-D445-A884-5B807461771D}"/>
+                <c16:uniqueId val="{00000013-9B2D-5A46-AA0C-C860B6BCCF79}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2169,7 +4928,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-41FE-D445-A884-5B807461771D}"/>
+                <c16:uniqueId val="{00000015-9B2D-5A46-AA0C-C860B6BCCF79}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2230,7 +4989,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$33:$U$37</c:f>
+              <c:f>'Cornell Univ. Code'!$U$33:$U$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2253,7 +5012,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$38:$AA$42</c:f>
+              <c:f>'Cornell Univ. Code'!$AA$38:$AA$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2277,7 +5036,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B36-B24F-9E5F-C3FF91FEA0A4}"/>
+              <c16:uniqueId val="{00000016-9B2D-5A46-AA0C-C860B6BCCF79}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2292,13 +5051,6 @@
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -2333,30 +5085,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2614,7 +5345,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$12:$U$16</c:f>
+              <c:f>'Cornell Univ. Code'!$U$12:$U$16</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2637,7 +5368,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$17:$Y$21</c:f>
+              <c:f>'Cornell Univ. Code'!$Y$17:$Y$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2796,7 +5527,7 @@
               <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Instr. mean weight (%) (perf report VM)</a:t>
+              <a:t>Instr. mean weight (%) (perf report aolin)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -3000,7 +5731,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$U$33:$U$37</c:f>
+              <c:f>'Cornell Univ. Code'!$U$33:$U$37</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3023,7 +5754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$38:$Y$42</c:f>
+              <c:f>'Cornell Univ. Code'!$Y$38:$Y$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3145,7 +5876,916 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Instr. Weight (%, /100)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> (perf report aolin)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1484-B14D-BC84-3A189818142D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1484-B14D-BC84-3A189818142D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1484-B14D-BC84-3A189818142D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1484-B14D-BC84-3A189818142D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cornell Univ. Code'!$U$33:$U$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>xor/or</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>add</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cmp/jmp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mv</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cornell Univ. Code'!$AB$38:$AB$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.59261197691912193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5643352485618102E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10461282537267856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10067292139444779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-1484-B14D-BC84-3A189818142D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'My Code'!$E$10:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Speedup</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'My Code'!$B$12:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'My Code'!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0292470908702267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4321851848678464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2655137764235374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00092046958888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08CA-3A4A-9494-64ECD9137DFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1234017200"/>
+        <c:axId val="1236791856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1234017200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1236791856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1236791856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1234017200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3425,6 +7065,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
   <cs:axisTitle>
@@ -3938,8 +7658,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4457,7 +8177,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4976,7 +8696,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5495,7 +9215,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6014,8 +9734,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6072,7 +9792,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6124,11 +9844,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -6141,18 +9859,16 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6178,6 +9894,526 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6533,7 +10769,3115 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7200,16 +14544,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>115454</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>11545</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>11545</xdr:rowOff>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>184725</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>80816</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>23091</xdr:rowOff>
+      <xdr:rowOff>80819</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7272,16 +14616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>294408</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>204355</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>305954</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>710045</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>721590</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>84282</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7301,6 +14645,318 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>311728</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09125D0E-9D99-F246-B619-E05387C500F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>829732</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812799</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>186265</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7294E1F1-CE81-D14F-BCF4-1FBA86294E79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13729</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>795867</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4692BC6D-71C2-4B42-8FF1-A00707BBD500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8237</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308268FE-CD98-E044-8244-4AB5E2749EFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>23091</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>542637</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F367EB01-2E2A-7249-B557-6FF9C689EDE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>5773</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>669637</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23089</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C814BB-0FE0-0C47-904F-A8DC660F3F19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>11545</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>11545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>531091</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>196273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CE42B5-024B-8641-A40E-9E522B626BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0CC7EF-9E0A-B542-A421-69259490D94A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7606,10 +15262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945C7C53-14F0-3B4C-A59F-3812A3F1CA89}">
-  <dimension ref="B4:AA56"/>
+  <dimension ref="B4:AC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" topLeftCell="X18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AJ50" sqref="AJ50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7624,6 +15280,7 @@
     <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:27" x14ac:dyDescent="0.2">
@@ -7886,7 +15543,7 @@
       <c r="Z16" s="19"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="U17" s="10" t="s">
         <v>62</v>
       </c>
@@ -7914,7 +15571,7 @@
         <v>0.27209207229700816</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
@@ -7944,7 +15601,7 @@
         <v>0.11283358119842417</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
@@ -7979,7 +15636,7 @@
         <v>4.5834584767599232E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>27</v>
       </c>
@@ -8016,7 +15673,7 @@
         <v>0.46519892333015722</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
@@ -8054,7 +15711,7 @@
         <v>0.10404083840681121</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
@@ -8085,7 +15742,7 @@
       <c r="Z22" s="19"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
@@ -8119,7 +15776,7 @@
       </c>
       <c r="AA23" s="27"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
@@ -8131,7 +15788,7 @@
         <v>3.783783783783784E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
@@ -8141,12 +15798,12 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
         <v>35</v>
       </c>
@@ -8175,7 +15832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
         <v>20</v>
       </c>
@@ -8206,7 +15863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
@@ -8254,8 +15911,11 @@
       <c r="AA31" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="AB31" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>43</v>
       </c>
@@ -8301,8 +15961,9 @@
         <v>10</v>
       </c>
       <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>24</v>
       </c>
@@ -8347,8 +16008,9 @@
       </c>
       <c r="Z33" s="19"/>
       <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>44</v>
       </c>
@@ -8393,8 +16055,9 @@
       </c>
       <c r="Z34" s="19"/>
       <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>45</v>
       </c>
@@ -8439,8 +16102,9 @@
       </c>
       <c r="Z35" s="19"/>
       <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>46</v>
       </c>
@@ -8486,8 +16150,9 @@
       </c>
       <c r="Z36" s="19"/>
       <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>47</v>
       </c>
@@ -8533,8 +16198,9 @@
       </c>
       <c r="Z37" s="19"/>
       <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>48</v>
       </c>
@@ -8588,8 +16254,12 @@
         <f>Z38*(1/Z44)</f>
         <v>0.39879804049237799</v>
       </c>
+      <c r="AB38" s="27">
+        <f>AA38/AB44</f>
+        <v>0.59261197691912193</v>
+      </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>49</v>
       </c>
@@ -8642,8 +16312,12 @@
         <f>Z39*(1/Z44)</f>
         <v>5.0904169882573568E-4</v>
       </c>
+      <c r="AB39" s="27">
+        <f>AA39/AB44</f>
+        <v>7.5643352485618102E-4</v>
+      </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>50</v>
       </c>
@@ -8696,8 +16370,12 @@
         <f>Z40*(1/Z44)</f>
         <v>7.0399167404423355E-2</v>
       </c>
+      <c r="AB40" s="27">
+        <f>AA40/AB44</f>
+        <v>0.10461282537267856</v>
+      </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="13" t="s">
         <v>51</v>
       </c>
@@ -8751,8 +16429,15 @@
         <f>Z41*(1/Z44)</f>
         <v>0.4625459401230626</v>
       </c>
+      <c r="AB41" s="27">
+        <f>AA42/AB44</f>
+        <v>0.10067292139444779</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="13" t="s">
         <v>52</v>
       </c>
@@ -8808,8 +16493,9 @@
         <f>Z42*(1/Z44)</f>
         <v>6.7747810281310411E-2</v>
       </c>
+      <c r="AB42" s="27"/>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
         <v>53</v>
       </c>
@@ -8857,8 +16543,9 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="25"/>
       <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="13" t="s">
         <v>54</v>
       </c>
@@ -8909,8 +16596,12 @@
         <v>0.28830643999999994</v>
       </c>
       <c r="AA44" s="11"/>
+      <c r="AB44" s="27" cm="1">
+        <f t="array" ref="AB44">SUM(AA38:AA40+AA42)</f>
+        <v>0.67294968043955827</v>
+      </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="13" t="s">
         <v>55</v>
       </c>
@@ -8941,7 +16632,7 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
         <v>42</v>
       </c>
@@ -8971,7 +16662,7 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="13" t="s">
         <v>41</v>
       </c>
@@ -8999,7 +16690,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
         <v>40</v>
       </c>
@@ -9210,4 +16901,1384 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721B12F6-E0CF-4444-AF66-0C4173F42585}">
+  <dimension ref="B4:AC56"/>
+  <sheetViews>
+    <sheetView topLeftCell="P26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Z51" sqref="Z51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="33"/>
+    <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="33" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="33"/>
+    <col min="7" max="7" width="13" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="33" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="33"/>
+    <col min="11" max="11" width="11.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="10.83203125" style="33"/>
+    <col min="20" max="25" width="17" style="33" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="33">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>57.247312999999998</v>
+      </c>
+      <c r="D11" s="8">
+        <v>57.232492999999998</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="35"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>14.207943</v>
+      </c>
+      <c r="D12" s="8">
+        <v>14.202747</v>
+      </c>
+      <c r="E12" s="8">
+        <f>C11/C12</f>
+        <v>4.0292470908702267</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="35"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
+        <v>9.9204650000000001</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9.9147409999999994</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:E15" si="0">C12/C13</f>
+        <v>1.4321851848678464</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="35"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7.8390810000000002</v>
+      </c>
+      <c r="D14" s="8">
+        <v>7.8350169999999997</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2655137764235374</v>
+      </c>
+      <c r="S14" s="35"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="35"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7.8318719999999997</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7.8278189999999999</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>1.00092046958888</v>
+      </c>
+      <c r="S15" s="35"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="35"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="35"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="S17" s="35"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="40"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="35"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="40"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="35"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="40"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8">
+        <v>77</v>
+      </c>
+      <c r="D20" s="9">
+        <f>C20/C25</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="S20" s="35"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="40"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="8">
+        <v>32</v>
+      </c>
+      <c r="D21" s="9">
+        <f>C21/C25</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="S21" s="35"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="40"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="9">
+        <f>C22/C25</f>
+        <v>0.24642857142857144</v>
+      </c>
+      <c r="S22" s="35"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="35"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B23" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="8">
+        <v>100</v>
+      </c>
+      <c r="D23" s="9">
+        <f>C23/C25</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="S23" s="35"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="35"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <f>C24/C25</f>
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="S24" s="35"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="41"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8">
+        <f>SUM(C20:C24)</f>
+        <v>280</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29" s="34"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="8">
+        <v>60</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8">
+        <v>36</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>48</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <f>8*4</f>
+        <v>32</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z31" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC31" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="8">
+        <v>16</v>
+      </c>
+      <c r="D32" s="8">
+        <v>16</v>
+      </c>
+      <c r="E32" s="8">
+        <v>16</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="42">
+        <v>16</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U32" s="43">
+        <v>0.42159999999999997</v>
+      </c>
+      <c r="V32" s="43">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="W32" s="43">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="X32" s="43">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="Y32" s="43">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="Z32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>16</v>
+      </c>
+      <c r="E33" s="8">
+        <v>16</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>16</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U33" s="8">
+        <v>13</v>
+      </c>
+      <c r="V33" s="8">
+        <v>1</v>
+      </c>
+      <c r="W33" s="8">
+        <v>1</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="20">
+        <f>SUM(U33:Y33)/SUM(U43:Y43)</f>
+        <v>5.7034220532319393E-2</v>
+      </c>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>20</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U34" s="8">
+        <v>7</v>
+      </c>
+      <c r="V34" s="8">
+        <v>2</v>
+      </c>
+      <c r="W34" s="8">
+        <v>6</v>
+      </c>
+      <c r="X34" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>12</v>
+      </c>
+      <c r="Z34" s="20">
+        <f>SUM(U34:Y34)/SUM(U43:Y43)</f>
+        <v>0.11026615969581749</v>
+      </c>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B35" s="13"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="5"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U35" s="8">
+        <v>24</v>
+      </c>
+      <c r="V35" s="8">
+        <v>3</v>
+      </c>
+      <c r="W35" s="8">
+        <v>12</v>
+      </c>
+      <c r="X35" s="8">
+        <v>7</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="20">
+        <f>SUM(U35:Y35)/SUM(U43:Y43)</f>
+        <v>0.17490494296577946</v>
+      </c>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B36" s="13"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="5"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U36" s="8">
+        <v>5</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="20">
+        <f>SUM(U36:Y36)/SUM(U43:Y43)</f>
+        <v>1.9011406844106463E-2</v>
+      </c>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B37" s="13"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="5"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U37" s="8">
+        <v>36</v>
+      </c>
+      <c r="V37" s="8">
+        <v>4</v>
+      </c>
+      <c r="W37" s="8">
+        <v>15</v>
+      </c>
+      <c r="X37" s="8">
+        <v>61</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>52</v>
+      </c>
+      <c r="Z37" s="20">
+        <f>SUM(U37:Y37)/SUM(U43:Y43)</f>
+        <v>0.63878326996197721</v>
+      </c>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B38" s="13"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="5"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U38" s="45">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="V38" s="46">
+        <v>0.03</v>
+      </c>
+      <c r="W38" s="45">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="X38" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="23">
+        <f>SUM(U38:Y38)/SUM(U44:Y44)</f>
+        <v>3.0947775628626689E-2</v>
+      </c>
+      <c r="AA38" s="23">
+        <f>(U38*U32+V38*V32+W38*W32+X38*X32+Y32*Y38)/5</f>
+        <v>9.2573279999999987E-3</v>
+      </c>
+      <c r="AB38" s="26">
+        <f>AA38*(1/AA44)</f>
+        <v>4.7897787951872599E-2</v>
+      </c>
+      <c r="AC38" s="27">
+        <f>(AB38*1)/AC44</f>
+        <v>0.16647747616356112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B39" s="13"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="5"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U39" s="45">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="V39" s="45">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="W39" s="45">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="X39" s="45">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="Y39" s="45">
+        <v>0.18210000000000001</v>
+      </c>
+      <c r="Z39" s="23">
+        <f>SUM(U39:Y39)/SUM(U44:Y44)</f>
+        <v>9.5230256389151821E-2</v>
+      </c>
+      <c r="AA39" s="23">
+        <f>(U39*U32+V32*V39+W32*W39+X32*X39+Y39*Y32)/5</f>
+        <v>1.1541082000000001E-2</v>
+      </c>
+      <c r="AB39" s="26">
+        <f>AA39*(1/AA44)</f>
+        <v>5.9714023136176429E-2</v>
+      </c>
+      <c r="AC39" s="27">
+        <f>AB39/AC44</f>
+        <v>0.20754695129703787</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B40" s="13"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="5"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="U40" s="45">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="V40" s="45">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="W40" s="45">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="X40" s="45">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="Y40" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="23">
+        <f>SUM(U40:Y40)/SUM(U44:Y44)</f>
+        <v>0.16673525659492164</v>
+      </c>
+      <c r="AA40" s="23">
+        <f>(U40*U32+V32*V40+W40*W32+X32*X40+Y40*Y32)/5</f>
+        <v>3.4049799999999998E-2</v>
+      </c>
+      <c r="AB40" s="26">
+        <f>AA40*(1/AA44)</f>
+        <v>0.17617503670645265</v>
+      </c>
+      <c r="AC40" s="27">
+        <f>AB40/AC44</f>
+        <v>0.61232839193707134</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="5"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="U41" s="45">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="V41" s="46">
+        <v>0</v>
+      </c>
+      <c r="W41" s="46">
+        <v>0</v>
+      </c>
+      <c r="X41" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="23">
+        <f>SUM(U41:Y41)/SUM(U44:Y44)</f>
+        <v>1.8519280628832462E-3</v>
+      </c>
+      <c r="AA41" s="23">
+        <f>(U41*U32+V41*V32+W41*W32+X41*X32+Y32*Y41)/5</f>
+        <v>7.5887999999999986E-4</v>
+      </c>
+      <c r="AB41" s="26">
+        <f>AA41*(1/AA44)</f>
+        <v>3.9264756872519884E-3</v>
+      </c>
+      <c r="AC41" s="27">
+        <f>AB41/AC44</f>
+        <v>1.3647180602329664E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B42" s="13"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="5"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="U42" s="45">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="V42" s="45">
+        <v>0.7863</v>
+      </c>
+      <c r="W42" s="45">
+        <v>0.49220000000000003</v>
+      </c>
+      <c r="X42" s="45">
+        <v>0.6532</v>
+      </c>
+      <c r="Y42" s="45">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="Z42" s="23">
+        <f>SUM(U42:X42)/SUM(U44:Y44)</f>
+        <v>0.547018395818758</v>
+      </c>
+      <c r="AA42" s="23">
+        <f>(U42*U32+V32*V42+W42*W32+X32*X42+Y32*Y42)/5</f>
+        <v>0.13766546800000001</v>
+      </c>
+      <c r="AB42" s="26">
+        <f>AA42*(1/AA44)</f>
+        <v>0.7122866765182464</v>
+      </c>
+      <c r="AC42" s="5"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B43" s="13"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="5"/>
+      <c r="T43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U43" s="44">
+        <f>SUM(U33:U37)</f>
+        <v>85</v>
+      </c>
+      <c r="V43" s="44">
+        <f t="shared" ref="V43:Y43" si="1">SUM(V33:V37)</f>
+        <v>10</v>
+      </c>
+      <c r="W43" s="44">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X43" s="44">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="Y43" s="44">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B44" s="13"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="5"/>
+      <c r="T44" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="U44" s="45">
+        <f>SUM(U38:U42)</f>
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="V44" s="45">
+        <f t="shared" ref="V44:Y44" si="2">SUM(V38:V42)</f>
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="W44" s="45">
+        <f t="shared" si="2"/>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="X44" s="45">
+        <f t="shared" si="2"/>
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="Y44" s="45">
+        <f t="shared" si="2"/>
+        <v>0.95100000000000007</v>
+      </c>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="24">
+        <f>SUM(AA38:AA42)</f>
+        <v>0.19327255800000001</v>
+      </c>
+      <c r="AB44" s="27">
+        <f>SUM(AB38:AB42)</f>
+        <v>1</v>
+      </c>
+      <c r="AC44" s="27">
+        <f>SUM(AB38:AB41)</f>
+        <v>0.28771332348175366</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B45" s="13"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B46" s="13"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B47" s="13"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B48" s="13"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="13"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="8">
+        <f>SUM(C30:C49)</f>
+        <v>77</v>
+      </c>
+      <c r="D50" s="8">
+        <f t="shared" ref="D50:G50" si="3">SUM(D30:D49)</f>
+        <v>32</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="8">
+        <f>SUM(C50:G50)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="9">
+        <f>C50/I50</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D51" s="9">
+        <f>D50/I50</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="E51" s="9">
+        <f>E50/I50</f>
+        <v>0.24642857142857144</v>
+      </c>
+      <c r="F51" s="9">
+        <f>F50/I50</f>
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="G51" s="9">
+        <f>G50/I50</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="8">
+        <f>C30*H30+C31*H31+C32*H32+C33*H33+C34*H34+C35*H35+C36*H36+C37*H37+C38*H38+C39*H39+C40*H40+C41*H41+C42*H42+C43*H43+C44*H44+C45*H45+C46*H46+C47*H47+C48*H48+C49*H49</f>
+        <v>108</v>
+      </c>
+      <c r="D52" s="8">
+        <f>D30*H30+D31*H31+D32*H32+D33*H33+D34*H34+D35*H35+D36*H36+D37*H37+D38*H38+D39*H39+D40*H40+D41*H41+D42*H42+D43*H43+D44*H44+D45*H45+D46*H46+D47*H47+D48*H48+D49*H49</f>
+        <v>32</v>
+      </c>
+      <c r="E52" s="8">
+        <f>E30*H30+E31*H31+E32*H32+E33*H33+E34*H34+E35*H35</f>
+        <v>100</v>
+      </c>
+      <c r="F52" s="8">
+        <f>H30*F30+H31*F31+H33*F33+H34*F34+H35*F35</f>
+        <v>64</v>
+      </c>
+      <c r="G52" s="8">
+        <f>H30*G30+H31*G31+H32*G33+H33+H34*G34</f>
+        <v>85</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="8">
+        <f>SUM(C52:G52)</f>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="9">
+        <f>C52/I52</f>
+        <v>0.27763496143958871</v>
+      </c>
+      <c r="D53" s="9">
+        <f>D52/I52</f>
+        <v>8.2262210796915161E-2</v>
+      </c>
+      <c r="E53" s="9">
+        <f>E52/I52</f>
+        <v>0.25706940874035988</v>
+      </c>
+      <c r="F53" s="9">
+        <f>F52/I52</f>
+        <v>0.16452442159383032</v>
+      </c>
+      <c r="G53" s="9">
+        <f>G52/I52</f>
+        <v>0.21850899742930591</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="17">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADF819-6599-8149-BC21-A96B80CA6951}">
+  <dimension ref="B4:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="31">
+        <v>57.247312999999998</v>
+      </c>
+      <c r="D7" s="31">
+        <v>57.232492999999998</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="31">
+        <v>14.207943</v>
+      </c>
+      <c r="D8" s="31">
+        <v>14.202747</v>
+      </c>
+      <c r="E8" s="31">
+        <v>4.0292500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="31">
+        <v>9.9204650000000001</v>
+      </c>
+      <c r="D9" s="31">
+        <v>9.9147409999999994</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1.4321600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="31">
+        <v>7.8390810000000002</v>
+      </c>
+      <c r="D10" s="31">
+        <v>7.8350169999999997</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1.2655099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="31">
+        <v>7.8318719999999997</v>
+      </c>
+      <c r="D11" s="31">
+        <v>7.8278189999999999</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1.00092</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>